--- a/TransferLearning/Results with transfer learning.xlsx
+++ b/TransferLearning/Results with transfer learning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transfer_TestJava_NoStandard" sheetId="1" state="visible" r:id="rId3"/>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">Classifier Non-Standard (CB_Anova-30_Bm_BorderlineSMOTE)</t>
   </si>
   <si>
-    <t xml:space="preserve">Standardized Detector_BorderlineSMOTE (XGB_chi-norm-30_Bb)</t>
+    <t xml:space="preserve">Standardized Detector_BorderlineSMOTE (XGB_Anova-30_Bm)</t>
   </si>
   <si>
     <t xml:space="preserve">Classifier Non-Standard (XGB_Chi-norm-25_Rb_BorderlineSMOTE)</t>
@@ -18798,10 +18798,10 @@
   </sheetPr>
   <dimension ref="A1:BL1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topRight" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53864,7 +53864,7 @@
   </sheetPr>
   <dimension ref="A1:BL1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B5" activeCellId="0" sqref="B5"/>

--- a/TransferLearning/Results with transfer learning.xlsx
+++ b/TransferLearning/Results with transfer learning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Transfer_TestJava_NoStandard" sheetId="1" state="visible" r:id="rId3"/>
@@ -1264,10 +1264,10 @@
   </sheetPr>
   <dimension ref="A1:BL1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B19" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topRight" activeCell="F49" activeCellId="0" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9573,7 +9573,7 @@
         <v>0.98</v>
       </c>
       <c r="F48" s="70" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="G48" s="69" t="n">
         <v>0.98</v>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="AD48" s="23" t="n">
         <f aca="false">(F48+R48)/2</f>
-        <v>0.895</v>
+        <v>0.905</v>
       </c>
       <c r="AE48" s="23" t="n">
         <f aca="false">(G48+S48)/2</f>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="AT48" s="23" t="n">
         <f aca="false">(F48+AH48)/2</f>
-        <v>0.915</v>
+        <v>0.925</v>
       </c>
       <c r="AU48" s="23" t="n">
         <f aca="false">(G48+AI48)/2</f>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="BJ48" s="17" t="n">
         <f aca="false">(BF48+F48)/2</f>
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="BK48" s="17" t="n">
         <f aca="false">(BG48+G48)/2</f>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="F51" s="40" t="n">
         <f aca="false">(F48+AH47)/2</f>
-        <v>0.915</v>
+        <v>0.925</v>
       </c>
       <c r="G51" s="40" t="n">
         <f aca="false">(G48+AI47)/2</f>
@@ -18798,9 +18798,9 @@
   </sheetPr>
   <dimension ref="A1:BL1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="F22" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
       <selection pane="topRight" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -27777,7 +27777,7 @@
       </c>
       <c r="R51" s="95" t="n">
         <f aca="false">(Transfer_TestJava_NoStandard!F48+Z50)/2</f>
-        <v>0.915</v>
+        <v>0.925</v>
       </c>
       <c r="S51" s="95" t="n">
         <f aca="false">(Transfer_TestJava_NoStandard!G48+AA50)/2</f>
@@ -36920,10 +36920,10 @@
   </sheetPr>
   <dimension ref="A1:BL1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B25" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="topRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topRight" activeCell="K55" activeCellId="0" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43503,10 +43503,10 @@
         <v>1</v>
       </c>
       <c r="N38" s="70" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O38" s="70" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="P38" s="69" t="n">
         <v>0.99</v>
@@ -43553,11 +43553,11 @@
       </c>
       <c r="AD38" s="23" t="n">
         <f aca="false">(R38+N38)/2</f>
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="AE38" s="23" t="n">
         <f aca="false">(S38+O38)/2</f>
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="AF38" s="23" t="n">
         <f aca="false">(T38+P38)/2</f>
@@ -43605,11 +43605,11 @@
       </c>
       <c r="AT38" s="17" t="n">
         <f aca="false">(N38+AH38)/2</f>
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="AU38" s="17" t="n">
         <f aca="false">(O38+AI38)/2</f>
-        <v>0.82</v>
+        <v>0.815</v>
       </c>
       <c r="AV38" s="17" t="n">
         <f aca="false">(P38+AJ38)/2</f>
@@ -43657,11 +43657,11 @@
       </c>
       <c r="BJ38" s="23" t="n">
         <f aca="false">(N38+AX38)/2</f>
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="BK38" s="23" t="n">
         <f aca="false">(O38+AY38)/2</f>
-        <v>0.82</v>
+        <v>0.815</v>
       </c>
       <c r="BL38" s="23" t="n">
         <f aca="false">(P38+AZ38)/2</f>
@@ -43681,11 +43681,11 @@
       </c>
       <c r="F39" s="40" t="n">
         <f aca="false">(N38+R31)/2</f>
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="G39" s="40" t="n">
         <f aca="false">(O38+S31)/2</f>
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="H39" s="40" t="n">
         <f aca="false">(P38+T31)/2</f>
@@ -60681,11 +60681,11 @@
       </c>
       <c r="R39" s="95" t="n">
         <f aca="false">(Transfer_TestCSharp_NoStandard!N38+Transfer_TestCSharp_NoStandard!R31)/2</f>
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="S39" s="95" t="n">
         <f aca="false">(Transfer_TestCSharp_NoStandard!O38+Transfer_TestCSharp_NoStandard!S31)/2</f>
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="T39" s="95" t="n">
         <f aca="false">(Transfer_TestCSharp_NoStandard!P38+Transfer_TestCSharp_NoStandard!T31)/2</f>
